--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
     <sheet name="wt_log2_optimized_expression" sheetId="19" r:id="rId9"/>
-    <sheet name="wt_sigmas" sheetId="20" r:id="rId10"/>
-    <sheet name="dcin5_log2_optimized_expression" sheetId="21" r:id="rId11"/>
+    <sheet name="dcin5_log2_optimized_expression" sheetId="20" r:id="rId10"/>
+    <sheet name="wt_sigmas" sheetId="21" r:id="rId11"/>
     <sheet name="dcin5_sigmas" sheetId="22" r:id="rId12"/>
     <sheet name="optimized_production_rates" sheetId="23" r:id="rId13"/>
     <sheet name="network_optimized_weights" sheetId="24" r:id="rId14"/>
+    <sheet name="optimization_diagnostics" sheetId="25" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
   <si>
     <t>CIN5</t>
   </si>
@@ -131,10 +132,37 @@
     <t>makeGraphs</t>
   </si>
   <si>
-    <t>StandardDeviation</t>
-  </si>
-  <si>
     <t>prorate</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>min LSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt SSE</t>
+  </si>
+  <si>
+    <t>dcin5 SSE</t>
   </si>
 </sst>
 </file>
@@ -811,76 +839,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -971,64 +929,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8619041495125653E-2</v>
+        <v>-8.9800321449215181E-2</v>
       </c>
       <c r="E2">
-        <v>-0.194377197035393</v>
+        <v>-0.17783723566962159</v>
       </c>
       <c r="F2">
-        <v>-0.2872080370982521</v>
+        <v>-0.26414317546565297</v>
       </c>
       <c r="G2">
-        <v>-0.377056842063688</v>
+        <v>-0.34875359461636379</v>
       </c>
       <c r="H2">
-        <v>-0.46387859554218824</v>
+        <v>-0.43170548228292405</v>
       </c>
       <c r="I2">
-        <v>-0.54764116472013247</v>
+        <v>-0.51303803932179959</v>
       </c>
       <c r="J2">
-        <v>-0.62832300816581788</v>
+        <v>-0.59279132706349291</v>
       </c>
       <c r="K2">
-        <v>-0.70591567222955709</v>
+        <v>-0.67100682676036338</v>
       </c>
       <c r="L2">
-        <v>-0.78042140814536543</v>
+        <v>-0.74772630271945129</v>
       </c>
       <c r="M2">
-        <v>-0.85185500465616293</v>
+        <v>-0.82299227598659463</v>
       </c>
       <c r="N2">
-        <v>-0.92024134198238428</v>
+        <v>-0.89684708166550642</v>
       </c>
       <c r="O2">
-        <v>-0.98561663579888059</v>
+        <v>-0.9693332787484078</v>
       </c>
       <c r="P2">
-        <v>-1.0480259899145263</v>
+        <v>-1.0404928780646217</v>
       </c>
       <c r="Q2">
-        <v>-1.107524163514813</v>
+        <v>-1.1103677031390775</v>
       </c>
       <c r="R2">
-        <v>-1.1641732007697012</v>
+        <v>-1.1789987643329474</v>
       </c>
       <c r="S2">
-        <v>-1.2180428478257987</v>
+        <v>-1.2464265806106019</v>
       </c>
       <c r="T2">
-        <v>-1.2692083357560437</v>
+        <v>-1.3126906763676192</v>
       </c>
       <c r="U2">
-        <v>-1.317750568416491</v>
+        <v>-1.377829870641254</v>
       </c>
       <c r="V2">
-        <v>-1.3637541196935672</v>
+        <v>-1.4418818751815392</v>
       </c>
       <c r="W2">
-        <v>-1.4073072484081381</v>
+        <v>-1.5048835406461176</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1042,64 +1000,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1333465961482592E-2</v>
+        <v>-5.3554472545191481E-2</v>
       </c>
       <c r="E3">
-        <v>-0.11949946733242102</v>
+        <v>-0.10534033101746187</v>
       </c>
       <c r="F3">
-        <v>-0.174564658489687</v>
+        <v>-0.15541295136192257</v>
       </c>
       <c r="G3">
-        <v>-0.22660623778538</v>
+        <v>-0.2038273200147003</v>
       </c>
       <c r="H3">
-        <v>-0.27570932301975143</v>
+        <v>-0.25063751475470381</v>
       </c>
       <c r="I3">
-        <v>-0.32196712784907688</v>
+        <v>-0.29589686364454737</v>
       </c>
       <c r="J3">
-        <v>-0.36547837206924449</v>
+        <v>-0.33965752021893808</v>
       </c>
       <c r="K3">
-        <v>-0.40634725238593372</v>
+        <v>-0.38197061557552464</v>
       </c>
       <c r="L3">
-        <v>-0.44468110218531126</v>
+        <v>-0.42288593483478537</v>
       </c>
       <c r="M3">
-        <v>-0.48059028184670194</v>
+        <v>-0.46245206329717115</v>
       </c>
       <c r="N3">
-        <v>-0.51418614869770529</v>
+        <v>-0.5007161439761052</v>
       </c>
       <c r="O3">
-        <v>-0.54558095613083801</v>
+        <v>-0.53772401759212052</v>
       </c>
       <c r="P3">
-        <v>-0.57488615965901169</v>
+        <v>-0.57352004400459444</v>
       </c>
       <c r="Q3">
-        <v>-0.60221237836388197</v>
+        <v>-0.60814723537794035</v>
       </c>
       <c r="R3">
-        <v>-0.6276680329961466</v>
+        <v>-0.64164712729223439</v>
       </c>
       <c r="S3">
-        <v>-0.65135939340899474</v>
+        <v>-0.6740599043814397</v>
       </c>
       <c r="T3">
-        <v>-0.67338952288209164</v>
+        <v>-0.70542430959397973</v>
       </c>
       <c r="U3">
-        <v>-0.69385841358419986</v>
+        <v>-0.73577776176435217</v>
       </c>
       <c r="V3">
-        <v>-0.71286219831691722</v>
+        <v>-0.76515629383282446</v>
       </c>
       <c r="W3">
-        <v>-0.73049334166480395</v>
+        <v>-0.79359465825360598</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1184,64 +1142,179 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-4.0414788520990307E-2</v>
+        <v>-4.5851325928348091E-2</v>
       </c>
       <c r="E5">
-        <v>-8.0626020575311985E-2</v>
+        <v>-9.0834146060417342E-2</v>
       </c>
       <c r="F5">
-        <v>-0.12063951324073555</v>
+        <v>-0.13497660518656263</v>
       </c>
       <c r="G5">
-        <v>-0.16046089657532556</v>
+        <v>-0.17830584843860664</v>
       </c>
       <c r="H5">
-        <v>-0.20009560854923744</v>
+        <v>-0.22084797637772191</v>
       </c>
       <c r="I5">
-        <v>-0.23954891524414976</v>
+        <v>-0.2626281490883578</v>
       </c>
       <c r="J5">
-        <v>-0.27882590512854322</v>
+        <v>-0.30367054964856338</v>
       </c>
       <c r="K5">
-        <v>-0.31793150775900902</v>
+        <v>-0.34399847763154839</v>
       </c>
       <c r="L5">
-        <v>-0.35687048830287416</v>
+        <v>-0.38363432380541679</v>
       </c>
       <c r="M5">
-        <v>-0.39564746488904612</v>
+        <v>-0.42259965397966681</v>
       </c>
       <c r="N5">
-        <v>-0.43426690334720125</v>
+        <v>-0.46091519214766763</v>
       </c>
       <c r="O5">
-        <v>-0.47273313333953698</v>
+        <v>-0.49860089557940129</v>
       </c>
       <c r="P5">
-        <v>-0.511050343291094</v>
+        <v>-0.53567594426493337</v>
       </c>
       <c r="Q5">
-        <v>-0.54922259541941854</v>
+        <v>-0.57215880810708175</v>
       </c>
       <c r="R5">
-        <v>-0.5872538208348882</v>
+        <v>-0.60806724102672904</v>
       </c>
       <c r="S5">
-        <v>-0.6251478335726145</v>
+        <v>-0.64341834105334972</v>
       </c>
       <c r="T5">
-        <v>-0.66290832584509485</v>
+        <v>-0.678228547842608</v>
       </c>
       <c r="U5">
-        <v>-0.70053888116950269</v>
+        <v>-0.71251369640221618</v>
       </c>
       <c r="V5">
-        <v>-0.73804296975777961</v>
+        <v>-0.74628901707297057</v>
       </c>
       <c r="W5">
-        <v>-0.77542396033709071</v>
+        <v>-0.77956918237391504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1251,26 +1324,35 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1278,10 +1360,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1289,10 +1380,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1302,8 +1402,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1311,6 +1420,15 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1337,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0.33764120064483327</v>
+        <v>0.69740719366499726</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1359,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0.62032733419316433</v>
+        <v>1.1568003225019745</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1370,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.8671788092304205</v>
+        <v>2.7591362546192006</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1381,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>9.999538075815142</v>
+        <v>2.3785237031173372</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1421,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>9.9047647093911291</v>
+        <v>1.1390375115164613</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1441,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.9651840646487724</v>
+        <v>1.1651979266914683</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1461,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.15068524181588863</v>
+        <v>1.2314115131035213</v>
       </c>
       <c r="E4">
-        <v>0.24024514254960094</v>
+        <v>1.3472374603129511</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1478,10 +1596,125 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.7834946467983899E-2</v>
+        <v>8.557768521733114E-2</v>
       </c>
       <c r="E5">
-        <v>7.7490995964415027E-2</v>
+        <v>0.39961091387211822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>5.6205951121146291E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>2.1248299830536412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>8.9376526217303694E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.7875305243460739E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>5.5824917406711817E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.1164983481342363E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3.9542102024695807E-3</v>
+      </c>
+      <c r="C10">
+        <v>3.9542102024695807E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.27504444391037791</v>
+      </c>
+      <c r="C11">
+        <v>0.50658263183573171</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2706,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2522,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2530,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2538,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2546,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2866,64 +3099,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8619041495125653E-2</v>
+        <v>-8.9800321449215181E-2</v>
       </c>
       <c r="E2">
-        <v>-0.194377197035393</v>
+        <v>-0.17783723566962159</v>
       </c>
       <c r="F2">
-        <v>-0.2872080370982521</v>
+        <v>-0.26414317546565297</v>
       </c>
       <c r="G2">
-        <v>-0.377056842063688</v>
+        <v>-0.34875359461636379</v>
       </c>
       <c r="H2">
-        <v>-0.46387859554218824</v>
+        <v>-0.43170548228292405</v>
       </c>
       <c r="I2">
-        <v>-0.54764116472013247</v>
+        <v>-0.51303803932179959</v>
       </c>
       <c r="J2">
-        <v>-0.62832300816581788</v>
+        <v>-0.59279132706349291</v>
       </c>
       <c r="K2">
-        <v>-0.70591567222955709</v>
+        <v>-0.67100682676036338</v>
       </c>
       <c r="L2">
-        <v>-0.78042140814536543</v>
+        <v>-0.74772630271945129</v>
       </c>
       <c r="M2">
-        <v>-0.85185500465616293</v>
+        <v>-0.82299227598659463</v>
       </c>
       <c r="N2">
-        <v>-0.92024134198238428</v>
+        <v>-0.89684708166550642</v>
       </c>
       <c r="O2">
-        <v>-0.98561663579888059</v>
+        <v>-0.9693332787484078</v>
       </c>
       <c r="P2">
-        <v>-1.0480259899145263</v>
+        <v>-1.0404928780646217</v>
       </c>
       <c r="Q2">
-        <v>-1.107524163514813</v>
+        <v>-1.1103677031390775</v>
       </c>
       <c r="R2">
-        <v>-1.1641732007697012</v>
+        <v>-1.1789987643329474</v>
       </c>
       <c r="S2">
-        <v>-1.2180428478257987</v>
+        <v>-1.2464265806106019</v>
       </c>
       <c r="T2">
-        <v>-1.2692083357560437</v>
+        <v>-1.3126906763676192</v>
       </c>
       <c r="U2">
-        <v>-1.317750568416491</v>
+        <v>-1.377829870641254</v>
       </c>
       <c r="V2">
-        <v>-1.3637541196935672</v>
+        <v>-1.4418818751815392</v>
       </c>
       <c r="W2">
-        <v>-1.4073072484081381</v>
+        <v>-1.5048835406461176</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2937,64 +3170,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1333465961482592E-2</v>
+        <v>-5.3554472545191481E-2</v>
       </c>
       <c r="E3">
-        <v>-0.11949946733242102</v>
+        <v>-0.10534033101746187</v>
       </c>
       <c r="F3">
-        <v>-0.174564658489687</v>
+        <v>-0.15541295136192257</v>
       </c>
       <c r="G3">
-        <v>-0.22660623778538</v>
+        <v>-0.2038273200147003</v>
       </c>
       <c r="H3">
-        <v>-0.27570932301975143</v>
+        <v>-0.25063751475470381</v>
       </c>
       <c r="I3">
-        <v>-0.32196712784907688</v>
+        <v>-0.29589686364454737</v>
       </c>
       <c r="J3">
-        <v>-0.36547837206924449</v>
+        <v>-0.33965752021893808</v>
       </c>
       <c r="K3">
-        <v>-0.40634725238593372</v>
+        <v>-0.38197061557552464</v>
       </c>
       <c r="L3">
-        <v>-0.44468110218531126</v>
+        <v>-0.42288593483478537</v>
       </c>
       <c r="M3">
-        <v>-0.48059028184670194</v>
+        <v>-0.46245206329717115</v>
       </c>
       <c r="N3">
-        <v>-0.51418614869770529</v>
+        <v>-0.5007161439761052</v>
       </c>
       <c r="O3">
-        <v>-0.54558095613083801</v>
+        <v>-0.53772401759212052</v>
       </c>
       <c r="P3">
-        <v>-0.57488615965901169</v>
+        <v>-0.57352004400459444</v>
       </c>
       <c r="Q3">
-        <v>-0.60221237836388197</v>
+        <v>-0.60814723537794035</v>
       </c>
       <c r="R3">
-        <v>-0.6276680329961466</v>
+        <v>-0.64164712729223439</v>
       </c>
       <c r="S3">
-        <v>-0.65135939340899474</v>
+        <v>-0.6740599043814397</v>
       </c>
       <c r="T3">
-        <v>-0.67338952288209164</v>
+        <v>-0.70542430959397973</v>
       </c>
       <c r="U3">
-        <v>-0.69385841358419986</v>
+        <v>-0.73577776176435217</v>
       </c>
       <c r="V3">
-        <v>-0.71286219831691722</v>
+        <v>-0.76515629383282446</v>
       </c>
       <c r="W3">
-        <v>-0.73049334166480395</v>
+        <v>-0.79359465825360598</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -3008,64 +3241,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.8122320178604219E-2</v>
+        <v>7.4345920314281444E-2</v>
       </c>
       <c r="E4">
-        <v>0.16115506718502881</v>
+        <v>0.1387862873421718</v>
       </c>
       <c r="F4">
-        <v>0.22231353709147517</v>
+        <v>0.19504398075803131</v>
       </c>
       <c r="G4">
-        <v>0.27393915702298077</v>
+        <v>0.24445619535924734</v>
       </c>
       <c r="H4">
-        <v>0.31778881113165003</v>
+        <v>0.28808099282175181</v>
       </c>
       <c r="I4">
-        <v>0.35521492080182371</v>
+        <v>0.3267702767439874</v>
       </c>
       <c r="J4">
-        <v>0.38728046056804166</v>
+        <v>0.36121939459262042</v>
       </c>
       <c r="K4">
-        <v>0.41483649373611109</v>
+        <v>0.39200333574599211</v>
       </c>
       <c r="L4">
-        <v>0.43857481079775151</v>
+        <v>0.41960228361880236</v>
       </c>
       <c r="M4">
-        <v>0.4590655570581188</v>
+        <v>0.44442125188544235</v>
       </c>
       <c r="N4">
-        <v>0.47678391143800891</v>
+        <v>0.46680430214292035</v>
       </c>
       <c r="O4">
-        <v>0.49213005189624992</v>
+        <v>0.48704596892456742</v>
       </c>
       <c r="P4">
-        <v>0.50544376977346306</v>
+        <v>0.50539967340460468</v>
       </c>
       <c r="Q4">
-        <v>0.51701582377902455</v>
+        <v>0.5220847587784978</v>
       </c>
       <c r="R4">
-        <v>0.52709645545353001</v>
+        <v>0.53729173165300481</v>
       </c>
       <c r="S4">
-        <v>0.53590221799300619</v>
+        <v>0.55118680460021641</v>
       </c>
       <c r="T4">
-        <v>0.54362120094766153</v>
+        <v>0.56391531043720267</v>
       </c>
       <c r="U4">
-        <v>0.55041733782410085</v>
+        <v>0.57560475729047178</v>
       </c>
       <c r="V4">
-        <v>0.55643376319069138</v>
+        <v>0.58636714421203395</v>
       </c>
       <c r="W4">
-        <v>0.56179564823038086</v>
+        <v>0.5963010868083789</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3079,64 +3312,64 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-5.544573857891149E-2</v>
+        <v>-5.8604556661095743E-2</v>
       </c>
       <c r="E5">
-        <v>-0.11130168744344732</v>
+        <v>-0.11678083924349103</v>
       </c>
       <c r="F5">
-        <v>-0.16745744886986488</v>
+        <v>-0.17448802461226795</v>
       </c>
       <c r="G5">
-        <v>-0.22381365459040461</v>
+        <v>-0.23168628341320835</v>
       </c>
       <c r="H5">
-        <v>-0.28027919590956796</v>
+        <v>-0.28833618327924054</v>
       </c>
       <c r="I5">
-        <v>-0.33676909098987357</v>
+        <v>-0.34439836996876116</v>
       </c>
       <c r="J5">
-        <v>-0.39320289273634029</v>
+        <v>-0.39983318516774291</v>
       </c>
       <c r="K5">
-        <v>-0.44950350258326338</v>
+        <v>-0.45460058100867851</v>
       </c>
       <c r="L5">
-        <v>-0.50559619660389432</v>
+        <v>-0.50865989173411208</v>
       </c>
       <c r="M5">
-        <v>-0.56140798652660906</v>
+        <v>-0.56196992615853658</v>
       </c>
       <c r="N5">
-        <v>-0.61686701740698968</v>
+        <v>-0.61448886482108267</v>
       </c>
       <c r="O5">
-        <v>-0.67190228574984379</v>
+        <v>-0.66617449926014538</v>
       </c>
       <c r="P5">
-        <v>-0.72644328970789274</v>
+        <v>-0.71698423762054075</v>
       </c>
       <c r="Q5">
-        <v>-0.78042000766489061</v>
+        <v>-0.76687546770195336</v>
       </c>
       <c r="R5">
-        <v>-0.83376273961336556</v>
+        <v>-0.81580565499870039</v>
       </c>
       <c r="S5">
-        <v>-0.88640229214160449</v>
+        <v>-0.86373280603844371</v>
       </c>
       <c r="T5">
-        <v>-0.93826997456240491</v>
+        <v>-0.91061563837583892</v>
       </c>
       <c r="U5">
-        <v>-0.98929795353976857</v>
+        <v>-0.9564141159027354</v>
       </c>
       <c r="V5">
-        <v>-1.0394193752650196</v>
+        <v>-1.0010896635263178</v>
       </c>
       <c r="W5">
-        <v>-1.0885688459320206</v>
+        <v>-1.0446057291203115</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -45,21 +45,6 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
     <t>rows genes affected/cols genes controlling</t>
   </si>
   <si>
@@ -69,9 +54,6 @@
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -84,21 +66,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -123,15 +96,6 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
-  </si>
-  <si>
     <t>prorate</t>
   </si>
   <si>
@@ -163,16 +127,50 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,38 +210,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,192 +651,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -839,232 +812,223 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-8.9800321449215181E-2</v>
       </c>
       <c r="D2">
-        <v>-8.9800321449215181E-2</v>
+        <v>-0.17783723566962159</v>
       </c>
       <c r="E2">
-        <v>-0.17783723566962159</v>
+        <v>-0.26414317546565297</v>
       </c>
       <c r="F2">
-        <v>-0.26414317546565297</v>
+        <v>-0.34875359461636379</v>
       </c>
       <c r="G2">
-        <v>-0.34875359461636379</v>
+        <v>-0.43170548228292405</v>
       </c>
       <c r="H2">
-        <v>-0.43170548228292405</v>
+        <v>-0.51303803932179959</v>
       </c>
       <c r="I2">
-        <v>-0.51303803932179959</v>
+        <v>-0.59279132706349291</v>
       </c>
       <c r="J2">
-        <v>-0.59279132706349291</v>
+        <v>-0.67100682676036338</v>
       </c>
       <c r="K2">
-        <v>-0.67100682676036338</v>
+        <v>-0.74772630271945129</v>
       </c>
       <c r="L2">
-        <v>-0.74772630271945129</v>
+        <v>-0.82299227598659463</v>
       </c>
       <c r="M2">
-        <v>-0.82299227598659463</v>
+        <v>-0.89684708166550642</v>
       </c>
       <c r="N2">
-        <v>-0.89684708166550642</v>
+        <v>-0.9693332787484078</v>
       </c>
       <c r="O2">
-        <v>-0.9693332787484078</v>
+        <v>-1.0404928780646217</v>
       </c>
       <c r="P2">
-        <v>-1.0404928780646217</v>
+        <v>-1.1103677031390775</v>
       </c>
       <c r="Q2">
-        <v>-1.1103677031390775</v>
+        <v>-1.1789987643329474</v>
       </c>
       <c r="R2">
-        <v>-1.1789987643329474</v>
+        <v>-1.2464265806106019</v>
       </c>
       <c r="S2">
-        <v>-1.2464265806106019</v>
+        <v>-1.3126906763676192</v>
       </c>
       <c r="T2">
-        <v>-1.3126906763676192</v>
+        <v>-1.377829870641254</v>
       </c>
       <c r="U2">
-        <v>-1.377829870641254</v>
+        <v>-1.4418818751815392</v>
       </c>
       <c r="V2">
-        <v>-1.4418818751815392</v>
-      </c>
-      <c r="W2">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-5.3554472545191481E-2</v>
       </c>
       <c r="D3">
-        <v>-5.3554472545191481E-2</v>
+        <v>-0.10534033101746187</v>
       </c>
       <c r="E3">
-        <v>-0.10534033101746187</v>
+        <v>-0.15541295136192257</v>
       </c>
       <c r="F3">
-        <v>-0.15541295136192257</v>
+        <v>-0.2038273200147003</v>
       </c>
       <c r="G3">
-        <v>-0.2038273200147003</v>
+        <v>-0.25063751475470381</v>
       </c>
       <c r="H3">
-        <v>-0.25063751475470381</v>
+        <v>-0.29589686364454737</v>
       </c>
       <c r="I3">
-        <v>-0.29589686364454737</v>
+        <v>-0.33965752021893808</v>
       </c>
       <c r="J3">
-        <v>-0.33965752021893808</v>
+        <v>-0.38197061557552464</v>
       </c>
       <c r="K3">
-        <v>-0.38197061557552464</v>
+        <v>-0.42288593483478537</v>
       </c>
       <c r="L3">
-        <v>-0.42288593483478537</v>
+        <v>-0.46245206329717115</v>
       </c>
       <c r="M3">
-        <v>-0.46245206329717115</v>
+        <v>-0.5007161439761052</v>
       </c>
       <c r="N3">
-        <v>-0.5007161439761052</v>
+        <v>-0.53772401759212052</v>
       </c>
       <c r="O3">
-        <v>-0.53772401759212052</v>
+        <v>-0.57352004400459444</v>
       </c>
       <c r="P3">
-        <v>-0.57352004400459444</v>
+        <v>-0.60814723537794035</v>
       </c>
       <c r="Q3">
-        <v>-0.60814723537794035</v>
+        <v>-0.64164712729223439</v>
       </c>
       <c r="R3">
-        <v>-0.64164712729223439</v>
+        <v>-0.6740599043814397</v>
       </c>
       <c r="S3">
-        <v>-0.6740599043814397</v>
+        <v>-0.70542430959397973</v>
       </c>
       <c r="T3">
-        <v>-0.70542430959397973</v>
+        <v>-0.73577776176435217</v>
       </c>
       <c r="U3">
-        <v>-0.73577776176435217</v>
+        <v>-0.76515629383282446</v>
       </c>
       <c r="V3">
-        <v>-0.76515629383282446</v>
-      </c>
-      <c r="W3">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1127,78 +1091,72 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.5851325928348091E-2</v>
       </c>
       <c r="D5">
-        <v>-4.5851325928348091E-2</v>
+        <v>-9.0834146060417342E-2</v>
       </c>
       <c r="E5">
-        <v>-9.0834146060417342E-2</v>
+        <v>-0.13497660518656263</v>
       </c>
       <c r="F5">
-        <v>-0.13497660518656263</v>
+        <v>-0.17830584843860664</v>
       </c>
       <c r="G5">
-        <v>-0.17830584843860664</v>
+        <v>-0.22084797637772191</v>
       </c>
       <c r="H5">
-        <v>-0.22084797637772191</v>
+        <v>-0.2626281490883578</v>
       </c>
       <c r="I5">
-        <v>-0.2626281490883578</v>
+        <v>-0.30367054964856338</v>
       </c>
       <c r="J5">
-        <v>-0.30367054964856338</v>
+        <v>-0.34399847763154839</v>
       </c>
       <c r="K5">
-        <v>-0.34399847763154839</v>
+        <v>-0.38363432380541679</v>
       </c>
       <c r="L5">
-        <v>-0.38363432380541679</v>
+        <v>-0.42259965397966681</v>
       </c>
       <c r="M5">
-        <v>-0.42259965397966681</v>
+        <v>-0.46091519214766763</v>
       </c>
       <c r="N5">
-        <v>-0.46091519214766763</v>
+        <v>-0.49860089557940129</v>
       </c>
       <c r="O5">
-        <v>-0.49860089557940129</v>
+        <v>-0.53567594426493337</v>
       </c>
       <c r="P5">
-        <v>-0.53567594426493337</v>
+        <v>-0.57215880810708175</v>
       </c>
       <c r="Q5">
-        <v>-0.57215880810708175</v>
+        <v>-0.60806724102672904</v>
       </c>
       <c r="R5">
-        <v>-0.60806724102672904</v>
+        <v>-0.64341834105334972</v>
       </c>
       <c r="S5">
-        <v>-0.64341834105334972</v>
+        <v>-0.678228547842608</v>
       </c>
       <c r="T5">
-        <v>-0.678228547842608</v>
+        <v>-0.71251369640221618</v>
       </c>
       <c r="U5">
-        <v>-0.71251369640221618</v>
+        <v>-0.74628901707297057</v>
       </c>
       <c r="V5">
-        <v>-0.74628901707297057</v>
-      </c>
-      <c r="W5">
         <v>-0.77956918237391504</v>
       </c>
     </row>
@@ -1209,63 +1167,57 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1273,15 +1225,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1293,16 +1242,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1311,9 +1257,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1324,63 +1267,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1388,15 +1325,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1408,16 +1342,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1426,9 +1357,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1439,66 +1367,51 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.69740719366499726</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>1.1568003225019745</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>2.7591362546192006</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2.3785237031173372</v>
       </c>
     </row>
@@ -1511,21 +1424,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1536,7 +1447,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1.1390375115164613</v>
@@ -1553,7 +1464,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1619,15 +1530,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>5.6205951121146291E-3</v>
@@ -1635,7 +1546,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2.1248299830536412</v>
@@ -1643,7 +1554,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1651,7 +1562,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>1012</v>
@@ -1659,23 +1570,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>8.9376526217303694E-3</v>
@@ -1686,7 +1597,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>5.5824917406711817E-3</v>
@@ -1724,159 +1635,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1888,20 +1766,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -1910,7 +1788,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -1919,16 +1797,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -1936,17 +1814,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1955,7 +1830,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1964,7 +1839,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1973,7 +1848,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1981,16 +1856,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1999,7 +1871,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -2008,7 +1880,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -2017,7 +1889,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -2025,16 +1897,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -2043,7 +1912,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -2052,7 +1921,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -2061,7 +1930,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -2069,16 +1938,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -2087,7 +1953,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -2096,7 +1962,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -2105,7 +1971,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -2113,40 +1979,37 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2155,285 +2018,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2443,9 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2470,14 +2316,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2488,7 +2334,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2505,7 +2351,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2566,9 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2592,14 +2436,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2627,7 +2471,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2644,7 +2488,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2694,7 +2538,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2706,7 +2550,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2716,22 +2560,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2752,7 +2596,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2760,7 +2604,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2768,7 +2612,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2776,7 +2620,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2784,49 +2628,49 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -2840,21 +2684,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -2862,10 +2706,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -2873,8 +2717,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
+      <c r="A17" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2952,20 +2796,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2973,7 +2820,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3002,373 +2849,358 @@
       <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-8.9800321449215181E-2</v>
       </c>
       <c r="D2">
-        <v>-8.9800321449215181E-2</v>
+        <v>-0.17783723566962159</v>
       </c>
       <c r="E2">
-        <v>-0.17783723566962159</v>
+        <v>-0.26414317546565297</v>
       </c>
       <c r="F2">
-        <v>-0.26414317546565297</v>
+        <v>-0.34875359461636379</v>
       </c>
       <c r="G2">
-        <v>-0.34875359461636379</v>
+        <v>-0.43170548228292405</v>
       </c>
       <c r="H2">
-        <v>-0.43170548228292405</v>
+        <v>-0.51303803932179959</v>
       </c>
       <c r="I2">
-        <v>-0.51303803932179959</v>
+        <v>-0.59279132706349291</v>
       </c>
       <c r="J2">
-        <v>-0.59279132706349291</v>
+        <v>-0.67100682676036338</v>
       </c>
       <c r="K2">
-        <v>-0.67100682676036338</v>
+        <v>-0.74772630271945129</v>
       </c>
       <c r="L2">
-        <v>-0.74772630271945129</v>
+        <v>-0.82299227598659463</v>
       </c>
       <c r="M2">
-        <v>-0.82299227598659463</v>
+        <v>-0.89684708166550642</v>
       </c>
       <c r="N2">
-        <v>-0.89684708166550642</v>
+        <v>-0.9693332787484078</v>
       </c>
       <c r="O2">
-        <v>-0.9693332787484078</v>
+        <v>-1.0404928780646217</v>
       </c>
       <c r="P2">
-        <v>-1.0404928780646217</v>
+        <v>-1.1103677031390775</v>
       </c>
       <c r="Q2">
-        <v>-1.1103677031390775</v>
+        <v>-1.1789987643329474</v>
       </c>
       <c r="R2">
-        <v>-1.1789987643329474</v>
+        <v>-1.2464265806106019</v>
       </c>
       <c r="S2">
-        <v>-1.2464265806106019</v>
+        <v>-1.3126906763676192</v>
       </c>
       <c r="T2">
-        <v>-1.3126906763676192</v>
+        <v>-1.377829870641254</v>
       </c>
       <c r="U2">
-        <v>-1.377829870641254</v>
+        <v>-1.4418818751815392</v>
       </c>
       <c r="V2">
-        <v>-1.4418818751815392</v>
-      </c>
-      <c r="W2">
         <v>-1.5048835406461176</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-5.3554472545191481E-2</v>
       </c>
       <c r="D3">
-        <v>-5.3554472545191481E-2</v>
+        <v>-0.10534033101746187</v>
       </c>
       <c r="E3">
-        <v>-0.10534033101746187</v>
+        <v>-0.15541295136192257</v>
       </c>
       <c r="F3">
-        <v>-0.15541295136192257</v>
+        <v>-0.2038273200147003</v>
       </c>
       <c r="G3">
-        <v>-0.2038273200147003</v>
+        <v>-0.25063751475470381</v>
       </c>
       <c r="H3">
-        <v>-0.25063751475470381</v>
+        <v>-0.29589686364454737</v>
       </c>
       <c r="I3">
-        <v>-0.29589686364454737</v>
+        <v>-0.33965752021893808</v>
       </c>
       <c r="J3">
-        <v>-0.33965752021893808</v>
+        <v>-0.38197061557552464</v>
       </c>
       <c r="K3">
-        <v>-0.38197061557552464</v>
+        <v>-0.42288593483478537</v>
       </c>
       <c r="L3">
-        <v>-0.42288593483478537</v>
+        <v>-0.46245206329717115</v>
       </c>
       <c r="M3">
-        <v>-0.46245206329717115</v>
+        <v>-0.5007161439761052</v>
       </c>
       <c r="N3">
-        <v>-0.5007161439761052</v>
+        <v>-0.53772401759212052</v>
       </c>
       <c r="O3">
-        <v>-0.53772401759212052</v>
+        <v>-0.57352004400459444</v>
       </c>
       <c r="P3">
-        <v>-0.57352004400459444</v>
+        <v>-0.60814723537794035</v>
       </c>
       <c r="Q3">
-        <v>-0.60814723537794035</v>
+        <v>-0.64164712729223439</v>
       </c>
       <c r="R3">
-        <v>-0.64164712729223439</v>
+        <v>-0.6740599043814397</v>
       </c>
       <c r="S3">
-        <v>-0.6740599043814397</v>
+        <v>-0.70542430959397973</v>
       </c>
       <c r="T3">
-        <v>-0.70542430959397973</v>
+        <v>-0.73577776176435217</v>
       </c>
       <c r="U3">
-        <v>-0.73577776176435217</v>
+        <v>-0.76515629383282446</v>
       </c>
       <c r="V3">
-        <v>-0.76515629383282446</v>
-      </c>
-      <c r="W3">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.4345920314281444E-2</v>
       </c>
       <c r="D4">
-        <v>7.4345920314281444E-2</v>
+        <v>0.1387862873421718</v>
       </c>
       <c r="E4">
-        <v>0.1387862873421718</v>
+        <v>0.19504398075803131</v>
       </c>
       <c r="F4">
-        <v>0.19504398075803131</v>
+        <v>0.24445619535924734</v>
       </c>
       <c r="G4">
-        <v>0.24445619535924734</v>
+        <v>0.28808099282175181</v>
       </c>
       <c r="H4">
-        <v>0.28808099282175181</v>
+        <v>0.3267702767439874</v>
       </c>
       <c r="I4">
-        <v>0.3267702767439874</v>
+        <v>0.36121939459262042</v>
       </c>
       <c r="J4">
-        <v>0.36121939459262042</v>
+        <v>0.39200333574599211</v>
       </c>
       <c r="K4">
-        <v>0.39200333574599211</v>
+        <v>0.41960228361880236</v>
       </c>
       <c r="L4">
-        <v>0.41960228361880236</v>
+        <v>0.44442125188544235</v>
       </c>
       <c r="M4">
-        <v>0.44442125188544235</v>
+        <v>0.46680430214292035</v>
       </c>
       <c r="N4">
-        <v>0.46680430214292035</v>
+        <v>0.48704596892456742</v>
       </c>
       <c r="O4">
-        <v>0.48704596892456742</v>
+        <v>0.50539967340460468</v>
       </c>
       <c r="P4">
-        <v>0.50539967340460468</v>
+        <v>0.5220847587784978</v>
       </c>
       <c r="Q4">
-        <v>0.5220847587784978</v>
+        <v>0.53729173165300481</v>
       </c>
       <c r="R4">
-        <v>0.53729173165300481</v>
+        <v>0.55118680460021641</v>
       </c>
       <c r="S4">
-        <v>0.55118680460021641</v>
+        <v>0.56391531043720267</v>
       </c>
       <c r="T4">
-        <v>0.56391531043720267</v>
+        <v>0.57560475729047178</v>
       </c>
       <c r="U4">
-        <v>0.57560475729047178</v>
+        <v>0.58636714421203395</v>
       </c>
       <c r="V4">
-        <v>0.58636714421203395</v>
-      </c>
-      <c r="W4">
         <v>0.5963010868083789</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5.8604556661095743E-2</v>
       </c>
       <c r="D5">
-        <v>-5.8604556661095743E-2</v>
+        <v>-0.11678083924349103</v>
       </c>
       <c r="E5">
-        <v>-0.11678083924349103</v>
+        <v>-0.17448802461226795</v>
       </c>
       <c r="F5">
-        <v>-0.17448802461226795</v>
+        <v>-0.23168628341320835</v>
       </c>
       <c r="G5">
-        <v>-0.23168628341320835</v>
+        <v>-0.28833618327924054</v>
       </c>
       <c r="H5">
-        <v>-0.28833618327924054</v>
+        <v>-0.34439836996876116</v>
       </c>
       <c r="I5">
-        <v>-0.34439836996876116</v>
+        <v>-0.39983318516774291</v>
       </c>
       <c r="J5">
-        <v>-0.39983318516774291</v>
+        <v>-0.45460058100867851</v>
       </c>
       <c r="K5">
-        <v>-0.45460058100867851</v>
+        <v>-0.50865989173411208</v>
       </c>
       <c r="L5">
-        <v>-0.50865989173411208</v>
+        <v>-0.56196992615853658</v>
       </c>
       <c r="M5">
-        <v>-0.56196992615853658</v>
+        <v>-0.61448886482108267</v>
       </c>
       <c r="N5">
-        <v>-0.61448886482108267</v>
+        <v>-0.66617449926014538</v>
       </c>
       <c r="O5">
-        <v>-0.66617449926014538</v>
+        <v>-0.71698423762054075</v>
       </c>
       <c r="P5">
-        <v>-0.71698423762054075</v>
+        <v>-0.76687546770195336</v>
       </c>
       <c r="Q5">
-        <v>-0.76687546770195336</v>
+        <v>-0.81580565499870039</v>
       </c>
       <c r="R5">
-        <v>-0.81580565499870039</v>
+        <v>-0.86373280603844371</v>
       </c>
       <c r="S5">
-        <v>-0.86373280603844371</v>
+        <v>-0.91061563837583892</v>
       </c>
       <c r="T5">
-        <v>-0.91061563837583892</v>
+        <v>-0.9564141159027354</v>
       </c>
       <c r="U5">
-        <v>-0.9564141159027354</v>
+        <v>-1.0010896635263178</v>
       </c>
       <c r="V5">
-        <v>-1.0010896635263178</v>
-      </c>
-      <c r="W5">
         <v>-1.0446057291203115</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -45,9 +45,6 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>dcin5</t>
-  </si>
-  <si>
-    <t>prorate</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -665,10 +659,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -676,7 +670,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -685,7 +679,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -822,7 +816,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -890,7 +884,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -958,7 +952,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1177,7 +1171,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1194,7 +1188,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6.7986997775525911E-17</v>
@@ -1211,7 +1205,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3.3993498887762956E-17</v>
@@ -1277,7 +1271,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1294,7 +1288,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6.7986997775525911E-17</v>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3.3993498887762956E-17</v>
@@ -1370,22 +1364,22 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.69740719366499726</v>
@@ -1393,7 +1387,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1.1568003225019745</v>
@@ -1424,19 +1418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1447,7 +1441,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1.1390375115164613</v>
@@ -1464,7 +1458,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1522,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1530,15 +1524,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>5.6205951121146291E-3</v>
@@ -1546,7 +1540,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2.1248299830536412</v>
@@ -1554,7 +1548,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1562,7 +1556,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1012</v>
@@ -1570,23 +1564,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>8.9376526217303694E-3</v>
@@ -1597,7 +1591,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>5.5824917406711817E-3</v>
@@ -1650,15 +1644,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1666,7 +1660,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1776,7 +1770,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1818,7 +1812,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="10">
         <v>-0.37633430629205178</v>
@@ -1859,7 +1853,7 @@
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10">
         <v>-0.22771865423983556</v>
@@ -2028,7 +2022,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2070,7 +2064,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9">
         <v>-0.37633430629205178</v>
@@ -2111,7 +2105,7 @@
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9">
         <v>-0.22771865423983556</v>
@@ -2317,13 +2311,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2334,7 +2328,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2351,7 +2345,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2437,13 +2431,13 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2471,7 +2465,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2488,7 +2482,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2560,22 +2554,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2596,7 +2590,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2604,7 +2598,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2612,7 +2606,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2620,7 +2614,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2628,7 +2622,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -2636,7 +2630,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2644,7 +2638,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -2652,7 +2646,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -2660,7 +2654,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>0</v>
@@ -2668,7 +2662,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2685,18 +2679,18 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7">
         <v>3</v>
@@ -2707,7 +2701,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -2718,7 +2712,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2804,15 +2798,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2820,7 +2814,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2866,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2934,7 +2928,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3002,7 +2996,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>Sigmoid</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -816,7 +819,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1171,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1271,7 +1274,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1371,10 +1374,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1418,13 +1421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1524,15 +1527,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>5.6205951121146291E-3</v>
@@ -1540,7 +1543,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2.1248299830536412</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1012</v>
@@ -1564,18 +1567,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,10 +1647,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1770,7 +1773,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2022,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2311,7 +2314,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2431,7 +2434,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2543,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2622,15 +2625,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -2662,7 +2665,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2685,7 +2688,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2712,7 +2715,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2798,10 +2801,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2860,7 +2863,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -1421,13 +1421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2314,7 +2314,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2434,7 +2434,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2546,7 +2546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2625,15 +2625,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2794,17 +2794,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -144,13 +144,16 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -172,6 +175,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -181,6 +185,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1421,13 +1426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2314,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2434,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2544,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2624,160 +2629,168 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>32</v>
+    </row>
+    <row r="9" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -114,12 +114,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>wt SSE</t>
-  </si>
-  <si>
-    <t>dcin5 SSE</t>
-  </si>
-  <si>
     <t>production_rate</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>L_curve</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
   </si>
 </sst>
 </file>
@@ -667,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1179,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1279,7 +1279,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1379,10 +1379,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1432,7 +1432,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1524,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1580,10 +1580,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,10 +1652,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1778,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2030,7 +2030,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2319,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2439,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2551,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -2630,15 +2630,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2814,10 +2814,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2876,7 +2876,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -70,9 +75,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -326,6 +328,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -667,10 +672,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -824,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1179,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1279,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1379,10 +1384,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1432,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1524,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1532,15 +1537,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>5.6205951121146291E-3</v>
@@ -1548,7 +1553,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2.1248299830536412</v>
@@ -1556,7 +1561,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1564,7 +1569,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1012</v>
@@ -1572,18 +1577,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,10 +1657,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1778,7 +1783,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2030,7 +2035,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2319,7 +2324,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2439,7 +2444,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2549,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2560,27 +2565,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2588,7 +2581,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2596,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2604,7 +2597,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2605,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2620,7 +2613,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2628,57 +2621,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2693,20 +2686,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2717,80 +2710,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>32</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2814,10 +2796,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2876,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="15278" tabRatio="644" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -26,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -161,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -237,8 +242,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,20 +647,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -663,7 +668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,7 +676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -679,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +693,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -697,54 +702,54 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
     </row>
   </sheetData>
@@ -761,19 +766,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -841,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -849,67 +854,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-8.9800321449215181E-2</v>
+        <v>-8.9800321449215195E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.17783723566962159</v>
+        <v>-0.17783723566962201</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.26414317546565297</v>
+        <v>-0.26414317546565302</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.34875359461636379</v>
+        <v>-0.34875359461636402</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.43170548228292405</v>
+        <v>-0.43170548228292399</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.51303803932179959</v>
+        <v>-0.51303803932180003</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.59279132706349291</v>
+        <v>-0.59279132706349302</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.67100682676036338</v>
+        <v>-0.67100682676036305</v>
       </c>
       <c r="K2" s="2">
-        <v>-0.74772630271945129</v>
+        <v>-0.74772630271945095</v>
       </c>
       <c r="L2" s="2">
-        <v>-0.82299227598659463</v>
+        <v>-0.82299227598659497</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.89684708166550642</v>
+        <v>-0.89684708166550597</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.9693332787484078</v>
+        <v>-0.96933327874840802</v>
       </c>
       <c r="O2" s="2">
-        <v>-1.0404928780646217</v>
+        <v>-1.0404928780646201</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.1103677031390775</v>
+        <v>-1.11036770313908</v>
       </c>
       <c r="Q2" s="2">
-        <v>-1.1789987643329474</v>
+        <v>-1.17899876433295</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.2464265806106019</v>
+        <v>-1.2464265806106001</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.3126906763676192</v>
+        <v>-1.31269067636762</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.377829870641254</v>
+        <v>-1.37782987064125</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.4418818751815392</v>
+        <v>-1.4418818751815401</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.5048835406461176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.5048835406461201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -917,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-5.3554472545191481E-2</v>
+        <v>-5.3554472545191502E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.10534033101746187</v>
+        <v>-0.105340331017462</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.15541295136192257</v>
+        <v>-0.15541295136192301</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.2038273200147003</v>
+        <v>-0.2038273200147</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.25063751475470381</v>
+        <v>-0.25063751475470403</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.29589686364454737</v>
+        <v>-0.29589686364454698</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.33965752021893808</v>
+        <v>-0.33965752021893802</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.38197061557552464</v>
+        <v>-0.38197061557552497</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.42288593483478537</v>
+        <v>-0.42288593483478498</v>
       </c>
       <c r="L3" s="2">
-        <v>-0.46245206329717115</v>
+        <v>-0.46245206329717098</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.5007161439761052</v>
+        <v>-0.50071614397610498</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.53772401759212052</v>
+        <v>-0.53772401759212096</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.57352004400459444</v>
+        <v>-0.573520044004594</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.60814723537794035</v>
+        <v>-0.60814723537794002</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.64164712729223439</v>
+        <v>-0.64164712729223405</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.6740599043814397</v>
+        <v>-0.67405990438144003</v>
       </c>
       <c r="S3" s="2">
-        <v>-0.70542430959397973</v>
+        <v>-0.70542430959397995</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.73577776176435217</v>
+        <v>-0.73577776176435195</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.76515629383282446</v>
+        <v>-0.76515629383282402</v>
       </c>
       <c r="V3" s="2">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1053,61 +1058,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-4.5851325928348091E-2</v>
+        <v>-4.5851325928348098E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-9.0834146060417342E-2</v>
+        <v>-9.0834146060417301E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.13497660518656263</v>
+        <v>-0.13497660518656299</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.17830584843860664</v>
+        <v>-0.178305848438607</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.22084797637772191</v>
+        <v>-0.22084797637772199</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.2626281490883578</v>
+        <v>-0.26262814908835802</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.30367054964856338</v>
+        <v>-0.30367054964856299</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.34399847763154839</v>
+        <v>-0.34399847763154801</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.38363432380541679</v>
+        <v>-0.38363432380541701</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.42259965397966681</v>
+        <v>-0.42259965397966698</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.46091519214766763</v>
+        <v>-0.46091519214766802</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.49860089557940129</v>
+        <v>-0.49860089557940102</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.53567594426493337</v>
+        <v>-0.53567594426493303</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.57215880810708175</v>
+        <v>-0.57215880810708197</v>
       </c>
       <c r="Q5" s="2">
         <v>-0.60806724102672904</v>
       </c>
       <c r="R5" s="2">
-        <v>-0.64341834105334972</v>
+        <v>-0.64341834105335005</v>
       </c>
       <c r="S5" s="2">
         <v>-0.678228547842608</v>
       </c>
       <c r="T5" s="2">
-        <v>-0.71251369640221618</v>
+        <v>-0.71251369640221596</v>
       </c>
       <c r="U5" s="2">
-        <v>-0.74628901707297057</v>
+        <v>-0.74628901707297102</v>
       </c>
       <c r="V5" s="2">
         <v>-0.77956918237391504</v>
@@ -1124,19 +1129,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1153,15 +1158,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1170,12 +1175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1187,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1232,19 +1237,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1261,15 +1266,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1278,12 +1283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1295,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1340,19 +1345,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1360,36 +1365,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>0.69740719366499726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.69740719366499704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>1.1568003225019745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.1568003225019701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>2.7591362546192006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2.7591362546192002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>2.3785237031173372</v>
+        <v>2.3785237031173398</v>
       </c>
     </row>
   </sheetData>
@@ -1403,19 +1408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1432,12 +1437,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>1.1390375115164613</v>
+        <v>1.1390375115164599</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1449,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1.1651979266914683</v>
+        <v>1.16519792669147</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1466,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1477,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>1.2314115131035213</v>
+        <v>1.2314115131035199</v>
       </c>
       <c r="E4" s="2">
-        <v>1.3472374603129511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.34723746031295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1494,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>8.557768521733114E-2</v>
+        <v>8.5577685217331098E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.39961091387211822</v>
+        <v>0.399610913872118</v>
       </c>
     </row>
   </sheetData>
@@ -1511,19 +1516,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1531,31 +1536,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>5.6205951121146291E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5.62059511211463E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>2.1248299830536412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.1248299830536399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.2133358649639599E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1563,12 +1568,12 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1587,40 +1592,40 @@
         <v>8.9376526217303694E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>1.7875305243460739E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.7875305243460701E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>5.5824917406711817E-3</v>
+        <v>5.58249174067118E-3</v>
       </c>
       <c r="C9" s="2">
-        <v>1.1164983481342363E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.11649834813424E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>3.9542102024695807E-3</v>
+        <v>3.9542102024695798E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>3.9542102024695807E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>3.9542102024695798E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>0.27504444391037791</v>
+        <v>0.27504444391037802</v>
       </c>
       <c r="C11" s="2">
-        <v>0.50658263183573171</v>
+        <v>0.50658263183573204</v>
       </c>
     </row>
   </sheetData>
@@ -1634,21 +1639,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1688,43 +1693,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1741,19 +1746,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="16384" width="10.5859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1776,10 +1781,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1795,195 +1800,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -2001,19 +2006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2036,10 +2041,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -2055,89 +2060,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2178,92 +2183,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -2280,34 +2285,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.41015625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2406,34 +2411,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.41015625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2467,7 +2472,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2549,20 +2554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="21.1171875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2708,7 +2713,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="2">
         <v>0.4</v>
@@ -2717,10 +2722,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="2">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="2">
         <v>0.8</v>
@@ -2735,13 +2740,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="2">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="2">
         <v>1.3</v>
       </c>
       <c r="P16" s="2">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="2">
         <v>1.5</v>
@@ -2750,13 +2755,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="2">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="2">
         <v>1.8</v>
       </c>
       <c r="U16" s="2">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="2">
         <v>2</v>
@@ -2776,19 +2781,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2796,7 +2801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2828,10 +2833,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -2846,19 +2851,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2926,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2934,67 +2939,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-8.9800321449215181E-2</v>
+        <v>-8.9800321449215195E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.17783723566962159</v>
+        <v>-0.17783723566962201</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.26414317546565297</v>
+        <v>-0.26414317546565302</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.34875359461636379</v>
+        <v>-0.34875359461636402</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.43170548228292405</v>
+        <v>-0.43170548228292399</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.51303803932179959</v>
+        <v>-0.51303803932180003</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.59279132706349291</v>
+        <v>-0.59279132706349302</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.67100682676036338</v>
+        <v>-0.67100682676036305</v>
       </c>
       <c r="K2" s="2">
-        <v>-0.74772630271945129</v>
+        <v>-0.74772630271945095</v>
       </c>
       <c r="L2" s="2">
-        <v>-0.82299227598659463</v>
+        <v>-0.82299227598659497</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.89684708166550642</v>
+        <v>-0.89684708166550597</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.9693332787484078</v>
+        <v>-0.96933327874840802</v>
       </c>
       <c r="O2" s="2">
-        <v>-1.0404928780646217</v>
+        <v>-1.0404928780646201</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.1103677031390775</v>
+        <v>-1.11036770313908</v>
       </c>
       <c r="Q2" s="2">
-        <v>-1.1789987643329474</v>
+        <v>-1.17899876433295</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.2464265806106019</v>
+        <v>-1.2464265806106001</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.3126906763676192</v>
+        <v>-1.31269067636762</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.377829870641254</v>
+        <v>-1.37782987064125</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.4418818751815392</v>
+        <v>-1.4418818751815401</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.5048835406461176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.5048835406461201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3002,67 +3007,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-5.3554472545191481E-2</v>
+        <v>-5.3554472545191502E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.10534033101746187</v>
+        <v>-0.105340331017462</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.15541295136192257</v>
+        <v>-0.15541295136192301</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.2038273200147003</v>
+        <v>-0.2038273200147</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.25063751475470381</v>
+        <v>-0.25063751475470403</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.29589686364454737</v>
+        <v>-0.29589686364454698</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.33965752021893808</v>
+        <v>-0.33965752021893802</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.38197061557552464</v>
+        <v>-0.38197061557552497</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.42288593483478537</v>
+        <v>-0.42288593483478498</v>
       </c>
       <c r="L3" s="2">
-        <v>-0.46245206329717115</v>
+        <v>-0.46245206329717098</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.5007161439761052</v>
+        <v>-0.50071614397610498</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.53772401759212052</v>
+        <v>-0.53772401759212096</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.57352004400459444</v>
+        <v>-0.573520044004594</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.60814723537794035</v>
+        <v>-0.60814723537794002</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.64164712729223439</v>
+        <v>-0.64164712729223405</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.6740599043814397</v>
+        <v>-0.67405990438144003</v>
       </c>
       <c r="S3" s="2">
-        <v>-0.70542430959397973</v>
+        <v>-0.70542430959397995</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.73577776176435217</v>
+        <v>-0.73577776176435195</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.76515629383282446</v>
+        <v>-0.76515629383282402</v>
       </c>
       <c r="V3" s="2">
         <v>-0.79359465825360598</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3070,67 +3075,67 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>7.4345920314281444E-2</v>
+        <v>7.4345920314281402E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1387862873421718</v>
+        <v>0.13878628734217199</v>
       </c>
       <c r="E4" s="2">
-        <v>0.19504398075803131</v>
+        <v>0.195043980758031</v>
       </c>
       <c r="F4" s="2">
-        <v>0.24445619535924734</v>
+        <v>0.24445619535924701</v>
       </c>
       <c r="G4" s="2">
-        <v>0.28808099282175181</v>
+        <v>0.28808099282175198</v>
       </c>
       <c r="H4" s="2">
-        <v>0.3267702767439874</v>
+        <v>0.32677027674398701</v>
       </c>
       <c r="I4" s="2">
-        <v>0.36121939459262042</v>
+        <v>0.36121939459261998</v>
       </c>
       <c r="J4" s="2">
-        <v>0.39200333574599211</v>
+        <v>0.392003335745992</v>
       </c>
       <c r="K4" s="2">
-        <v>0.41960228361880236</v>
+        <v>0.41960228361880197</v>
       </c>
       <c r="L4" s="2">
-        <v>0.44442125188544235</v>
+        <v>0.44442125188544201</v>
       </c>
       <c r="M4" s="2">
-        <v>0.46680430214292035</v>
+        <v>0.46680430214292001</v>
       </c>
       <c r="N4" s="2">
-        <v>0.48704596892456742</v>
+        <v>0.48704596892456697</v>
       </c>
       <c r="O4" s="2">
-        <v>0.50539967340460468</v>
+        <v>0.50539967340460501</v>
       </c>
       <c r="P4" s="2">
-        <v>0.5220847587784978</v>
+        <v>0.52208475877849803</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.53729173165300481</v>
+        <v>0.53729173165300503</v>
       </c>
       <c r="R4" s="2">
-        <v>0.55118680460021641</v>
+        <v>0.55118680460021596</v>
       </c>
       <c r="S4" s="2">
-        <v>0.56391531043720267</v>
+        <v>0.563915310437203</v>
       </c>
       <c r="T4" s="2">
-        <v>0.57560475729047178</v>
+        <v>0.575604757290472</v>
       </c>
       <c r="U4" s="2">
         <v>0.58636714421203395</v>
       </c>
       <c r="V4" s="2">
-        <v>0.5963010868083789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.59630108680837901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3138,64 +3143,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-5.8604556661095743E-2</v>
+        <v>-5.8604556661095701E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.11678083924349103</v>
+        <v>-0.116780839243491</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.17448802461226795</v>
+        <v>-0.17448802461226801</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.23168628341320835</v>
+        <v>-0.23168628341320799</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.28833618327924054</v>
+        <v>-0.28833618327924099</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.34439836996876116</v>
+        <v>-0.344398369968761</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.39983318516774291</v>
+        <v>-0.39983318516774302</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.45460058100867851</v>
+        <v>-0.45460058100867901</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.50865989173411208</v>
+        <v>-0.50865989173411197</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.56196992615853658</v>
+        <v>-0.56196992615853703</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.61448886482108267</v>
+        <v>-0.614488864821083</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.66617449926014538</v>
+        <v>-0.66617449926014505</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.71698423762054075</v>
+        <v>-0.71698423762054098</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.76687546770195336</v>
+        <v>-0.76687546770195303</v>
       </c>
       <c r="Q5" s="2">
-        <v>-0.81580565499870039</v>
+        <v>-0.81580565499869995</v>
       </c>
       <c r="R5" s="2">
-        <v>-0.86373280603844371</v>
+        <v>-0.86373280603844405</v>
       </c>
       <c r="S5" s="2">
-        <v>-0.91061563837583892</v>
+        <v>-0.91061563837583903</v>
       </c>
       <c r="T5" s="2">
-        <v>-0.9564141159027354</v>
+        <v>-0.95641411590273495</v>
       </c>
       <c r="U5" s="2">
-        <v>-1.0010896635263178</v>
+        <v>-1.00108966352632</v>
       </c>
       <c r="V5" s="2">
-        <v>-1.0446057291203115</v>
+        <v>-1.0446057291203099</v>
       </c>
     </row>
   </sheetData>
